--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Gum addition/26results - GUM Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Gum addition/26results - GUM Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26 Gum addition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182BE10-96F4-4EC1-B69E-7BD8FBD4B6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3619A07C-E818-4C11-98BF-B15247C0A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVerall" sheetId="2" r:id="rId1"/>
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +361,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1207,22 +1213,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D09B2-4E2E-42DE-86BC-3DCD5B1D7E21}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1281,7 +1287,7 @@
       <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4">
@@ -1335,14 +1341,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC33B24A-2950-4DB5-833C-3825B1A5C883}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
@@ -1405,11 +1411,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="10">

--- a/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Gum addition/26results - GUM Overall.xlsx
+++ b/Python Working Notebooks/Production Tank Model results in Excel format/26MT excel results/26 Gum addition/26results - GUM Overall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Thesis 2023\Capstone---CCT\Python Working Notebooks\Production Tank Model results in Excel format\26MT excel results\26 Gum addition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3619A07C-E818-4C11-98BF-B15247C0A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD80FA4A-11BE-4270-B828-AF2F5113FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OVerall" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -222,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -282,19 +289,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,6 +382,12 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -362,11 +409,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,40 +767,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D30BEE9-A987-4EC0-BD42-596E701BB964}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="30" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -751,458 +811,458 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>8.6427745011280374E-5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>3.3549224070341019E-3</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>7.2608277189202997E-4</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>3.229316785743105E-3</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0.9999196635368548</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>0.9968815268722715</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>0.99848076073484626</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>0.99324305017217696</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>2.4414906291421361E-3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>3.3746473393909968E-3</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>2.898604744770124E-3</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <v>3.2819797490962052E-3</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>0.9977305815172901</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.99686319211991703</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>0.99393502461029237</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>0.99313285937184037</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0.96843033561353475</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>3.5748026569415192E-3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>0.75115341934975843</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <v>3.5320860914239229E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>9.982300295351787E-2</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.99667714341195157</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>-0.57169652415383254</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.99260954248506428</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>3.3070350048092262E-3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>3.9921834825005194E-3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1.497740953085067E-2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>1.5912803163128979E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>0.99692603925106205</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.9962891788838284</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>0.96866160508083154</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.96670440847798567</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>3.0896981117024202E-7</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>1.075128790871442E-13</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>9.0326964417004468E-3</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>1.103380834094897E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>0.99999971280586064</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.99999999999990008</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>0.98110018907529339</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>0.97691310753446203</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>1.5902060259950879E-2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>1.3338503946004139E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>0.96672688668702977</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>0.97209081427400734</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>2.9847150403378661E-3</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>4.4000734487571391E-3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>1.6354335682638849E-2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>2.1445510455456299E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0.99722564264744074</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.99591003631523289</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>0.96578055576249744</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>0.95512789614840199</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>412.94200000000001</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>178.822</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>188.52600000000001</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>0.861626</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>0.86511400000000005</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>0.85779499999999997</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>3629.37</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>11.1943</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>1196.4100000000001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>7.4009799999999997</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>-0.21617600000000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.99624900000000005</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>9.7547300000000003E-2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>0.994417</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>506.178</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>63.332700000000003</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>552.26199999999994</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>125.964</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>0.83038400000000001</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.97877800000000004</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>0.58342700000000003</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>0.90498500000000004</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>4433.83</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>667.24382230909703</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>1418.46</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>328.88248728866199</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>-0.48574400000000001</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.77641148840587504</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>-6.9944599999999996E-2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <v>0.75192317784416896</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>5461.17</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3909.2036884776198</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>1773.12</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>1314.1544286737201</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>-0.82999800000000001</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>-0.30994548769321101</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>-0.33746999999999999</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <v>8.7302696624137407E-3</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:K1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1220,35 +1280,35 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="4" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1258,25 +1318,25 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1284,49 +1344,49 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>3.0896981117024202E-7</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>1.075128790871442E-13</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>9.0326964417004468E-3</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>1.103380834094897E-2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>0.99999971280586064</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.99999999999990008</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>0.98110018907529339</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>0.97691310753446203</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1341,40 +1401,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC33B24A-2950-4DB5-833C-3825B1A5C883}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="4" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="23.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1386,25 +1446,25 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1412,49 +1472,49 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>5461.17</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>3909.2036884776198</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1773.12</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>1314.1544286737201</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>-0.82999800000000001</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>-0.30994548769321101</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>-0.33746999999999999</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>8.7302696624137407E-3</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
